--- a/data/case1/5/Q_device_14.xlsx
+++ b/data/case1/5/Q_device_14.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.036322520548542452</v>
+        <v>0.051944486854919064</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.036322520590306759</v>
+        <v>-0.051944486884242344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.070322757346811898</v>
+        <v>0.013464490202881409</v>
       </c>
       <c r="B2" s="0">
-        <v>0.070322757326311588</v>
+        <v>-0.013464490252297064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.014649468801596295</v>
+        <v>-0.020799110086841498</v>
       </c>
       <c r="B3" s="0">
-        <v>0.014649468774792628</v>
+        <v>0.02079910999601697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.019342793873739477</v>
+        <v>0.028503384279370134</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.019342793958963669</v>
+        <v>-0.028503384303528591</v>
       </c>
     </row>
   </sheetData>
